--- a/biology/Botanique/Paeoniaceae/Paeoniaceae.xlsx
+++ b/biology/Botanique/Paeoniaceae/Paeoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Paeoniaceae (Paéoniacées ou Péoniacées) regroupe des plantes dicotylédones ; elle comprend environ 40 espèces appartenant au genre Paeonia.
 Ce sont  des arbustes ou plus généralement des plantes herbacées des régions tempérées de l'hémisphère nord. C'est la famille des pivoines, utilisées comme plantes ornementales.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre-type Paeonia dérivé du grec παιονία / paionia, nom grec de la pivoine, qui signifie « de Paion ». La divinité Παιών / Paion ou Paean était le médecin des dieux dans la mythologie grecque ; ce nom fait référence à l'usage médicinal de la plante à l'époque classique.
-En Égypte, le Fawaniya, nom arabisé du Paeonia, est le nom donné aux racines de pivoine vendues à usage médical sur les marchés du Caire[1]. Paeonia fait aussi référence aux habitants de la Péonie (Nord de la Macédoine)[2]. 
+En Égypte, le Fawaniya, nom arabisé du Paeonia, est le nom donné aux racines de pivoine vendues à usage médical sur les marchés du Caire. Paeonia fait aussi référence aux habitants de la Péonie (Nord de la Macédoine). 
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place cette famille dans l'ordre des Saxifragales.
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (28 avr. 2010)[3], NCBI  (28 avr. 2010)[4], DELTA Angio           (28 avr. 2010)[5] et ITIS      (28 avr. 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (28 avr. 2010), NCBI  (28 avr. 2010), DELTA Angio           (28 avr. 2010) et ITIS      (28 avr. 2010) :
 genre Paeonia  L.</t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 avr. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 avr. 2010) :
 genre Paeonia
 Paeonia anomala
 Paeonia broteri
